--- a/data/raw/plant/petal_weight.xlsx
+++ b/data/raw/plant/petal_weight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gretchen/GitHub/CApoppy/data/raw/plant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A006C4-11DB-7C48-95A4-527D12B1ECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D088814-4627-4E5F-B102-A962F792AF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,11 @@
     <sheet name="Petal_2025_low" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -67,12 +54,25 @@
   <si>
     <t>CojoHQ</t>
   </si>
+  <si>
+    <t>dry_wgt</t>
+  </si>
+  <si>
+    <t>water_mg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,15 +98,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -443,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +476,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -493,8 +502,19 @@
       <c r="F3">
         <v>9.9570000000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <f>D3-G3</f>
+        <v>0.14157</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/D3</f>
+        <v>0.88942639944713198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -513,8 +533,19 @@
       <c r="F4">
         <v>13.920999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1.1169999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H17" si="0">D4-G4</f>
+        <v>9.8930000000000004E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I17" si="1">H4/D4</f>
+        <v>0.89854677565849228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -533,8 +564,19 @@
       <c r="F5">
         <v>13.526999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>2.1229999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.18359</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89634801288936627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,8 +592,19 @@
       <c r="E6">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1.7819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.15789999999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89858866378329161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,8 +620,19 @@
       <c r="E7">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1.9980000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.16696</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89312078741842305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -584,8 +648,19 @@
       <c r="E8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1.8249999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.14959</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89126549094375607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,8 +676,19 @@
       <c r="E9">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1.4579999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.10836</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88140556368960477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -618,8 +704,19 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.13807</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89498930446619562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -635,8 +732,19 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>9.7549999999999998E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89503624185705111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -652,8 +760,19 @@
       <c r="E12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.16535</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89986394557823124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -669,8 +788,19 @@
       <c r="E13">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>2.2710000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.17779</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88673316708229422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -686,8 +816,19 @@
       <c r="E14">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.21931</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8932833693128589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -703,8 +844,19 @@
       <c r="E15">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1.9279999999999999E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.16967000000000002</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89796242392167247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -720,8 +872,19 @@
       <c r="E16">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1.4829999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.12121</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8909879447221406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,8 +900,19 @@
       <c r="E17">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.10503</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88238259262370833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45744</v>
       </c>
@@ -751,8 +925,19 @@
       <c r="D18">
         <v>5.4460000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>6.2300000000000003E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H32" si="2">D18-G18</f>
+        <v>4.8230000000000002E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" ref="I18:I32" si="3">H18/D18</f>
+        <v>0.88560411311053988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45744</v>
       </c>
@@ -765,8 +950,19 @@
       <c r="D19">
         <v>6.5339999999999995E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>8.09E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>5.7249999999999995E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.87618610345883075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45744</v>
       </c>
@@ -779,8 +975,19 @@
       <c r="D20">
         <v>6.9680000000000006E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>5.7660000000000003E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8274971297359357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45744</v>
       </c>
@@ -793,8 +1000,19 @@
       <c r="D21">
         <v>6.4399999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>9.5600000000000008E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>5.484E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.85155279503105596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45744</v>
       </c>
@@ -807,8 +1025,19 @@
       <c r="D22">
         <v>8.3510000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>7.5209999999999999E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90061070530475396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45744</v>
       </c>
@@ -821,8 +1050,19 @@
       <c r="D23">
         <v>7.8229999999999994E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>9.5099999999999994E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>6.8719999999999989E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.87843538284545564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45744</v>
       </c>
@@ -835,8 +1075,19 @@
       <c r="D24">
         <v>0.12504999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1.2659999999999999E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.11238999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89876049580167927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45744</v>
       </c>
@@ -849,8 +1100,19 @@
       <c r="D25">
         <v>0.10689</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>5.8599999999999998E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.10102999999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94517728505940679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45744</v>
       </c>
@@ -863,8 +1125,19 @@
       <c r="D26">
         <v>0.14451</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1.3469999999999999E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.13103999999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90678845754619053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45744</v>
       </c>
@@ -877,8 +1150,19 @@
       <c r="D27">
         <v>8.2030000000000006E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>7.2160000000000002E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8796781665244422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45744</v>
       </c>
@@ -891,8 +1175,19 @@
       <c r="D28">
         <v>7.4819999999999998E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>6.6879999999999995E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89387864207431167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45744</v>
       </c>
@@ -905,8 +1200,19 @@
       <c r="D29">
         <v>8.412E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>7.5539999999999996E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89800285306704708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45744</v>
       </c>
@@ -919,8 +1225,19 @@
       <c r="D30">
         <v>3.1600000000000003E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>3.0200000000000001E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>2.8580000000000001E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90443037974683538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45744</v>
       </c>
@@ -933,8 +1250,19 @@
       <c r="D31">
         <v>3.8300000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>4.45E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>3.3849999999999998E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>0.88381201044386415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45744</v>
       </c>
@@ -947,8 +1275,19 @@
       <c r="D32">
         <v>5.8630000000000002E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>4.9570000000000003E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.84547160156916257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45744</v>
       </c>
@@ -961,8 +1300,19 @@
       <c r="D33">
         <v>7.4609999999999996E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>9.3299999999999998E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H62" si="4">D33-G33</f>
+        <v>6.5279999999999991E-2</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" ref="I33:I62" si="5">H33/D33</f>
+        <v>0.87494973864093273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45744</v>
       </c>
@@ -975,8 +1325,19 @@
       <c r="D34">
         <v>3.6850000000000001E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>4.62E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>3.2230000000000002E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87462686567164183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45744</v>
       </c>
@@ -989,8 +1350,19 @@
       <c r="D35">
         <v>0.10612000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>1.1860000000000001E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>9.426000000000001E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88823972860912181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45744</v>
       </c>
@@ -1003,8 +1375,19 @@
       <c r="D36">
         <v>7.0050000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>6.6600000000000001E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>6.3390000000000002E-2</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.90492505353319064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45744</v>
       </c>
@@ -1017,8 +1400,19 @@
       <c r="D37">
         <v>6.2520000000000006E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>7.9100000000000004E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>5.4610000000000006E-2</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87348048624440178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45744</v>
       </c>
@@ -1031,8 +1425,19 @@
       <c r="D38">
         <v>5.9610000000000003E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>7.1399999999999996E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>5.2470000000000003E-2</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88022143935581276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45744</v>
       </c>
@@ -1045,8 +1450,19 @@
       <c r="D39">
         <v>6.2899999999999998E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>5.636E-2</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.89602543720190786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45744</v>
       </c>
@@ -1059,8 +1475,19 @@
       <c r="D40">
         <v>5.0869999999999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>4.4609999999999997E-2</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87694122272459207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45744</v>
       </c>
@@ -1073,8 +1500,19 @@
       <c r="D41">
         <v>7.4139999999999998E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>9.0399999999999994E-3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>6.5099999999999991E-2</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87806851901807381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45744</v>
       </c>
@@ -1087,8 +1525,19 @@
       <c r="D42">
         <v>4.4240000000000002E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>3.7700000000000004E-2</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85216998191681748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45744</v>
       </c>
@@ -1101,8 +1550,19 @@
       <c r="D43">
         <v>0.13056999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>1.4840000000000001E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>0.11572999999999999</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88634448954583744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45744</v>
       </c>
@@ -1115,8 +1575,19 @@
       <c r="D44">
         <v>8.9630000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1.065E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>7.8979999999999995E-2</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88117817694968192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45744</v>
       </c>
@@ -1129,8 +1600,19 @@
       <c r="D45">
         <v>0.11824</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>1.371E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>0.10453</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88404939106901215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45744</v>
       </c>
@@ -1143,8 +1625,19 @@
       <c r="D46">
         <v>5.704E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>6.7400000000000003E-3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88183730715287512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45744</v>
       </c>
@@ -1157,8 +1650,19 @@
       <c r="D47">
         <v>0.10456</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>1.2829999999999999E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>9.1730000000000006E-2</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="5"/>
+        <v>0.87729533282325944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45764</v>
       </c>
@@ -1171,8 +1675,19 @@
       <c r="D48">
         <v>2.8340000000000001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>2.8140000000000002E-2</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99294283697953423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45764</v>
       </c>
@@ -1185,8 +1700,19 @@
       <c r="D49">
         <v>3.2590000000000001E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>4.5100000000000001E-3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>2.8080000000000001E-2</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="5"/>
+        <v>0.86161399202209266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45764</v>
       </c>
@@ -1199,8 +1725,19 @@
       <c r="D50">
         <v>3.9129999999999998E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>3.458E-2</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88372093023255816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45764</v>
       </c>
@@ -1213,8 +1750,19 @@
       <c r="D51">
         <v>7.4179999999999996E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>9.6900000000000007E-3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>6.4489999999999992E-2</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="5"/>
+        <v>0.86937179832839029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45764</v>
       </c>
@@ -1227,8 +1775,19 @@
       <c r="D52">
         <v>4.5670000000000002E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>5.3E-3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>4.0370000000000003E-2</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88395007663674185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45764</v>
       </c>
@@ -1241,8 +1800,19 @@
       <c r="D53">
         <v>0.10503</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>9.8099999999999993E-3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>9.5219999999999999E-2</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="5"/>
+        <v>0.90659811482433594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45764</v>
       </c>
@@ -1255,8 +1825,19 @@
       <c r="D54">
         <v>7.4789999999999995E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>8.2900000000000005E-3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88915630431875914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45764</v>
       </c>
@@ -1269,8 +1850,19 @@
       <c r="D55">
         <v>7.4069999999999997E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>6.7169999999999994E-2</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="5"/>
+        <v>0.90684487646820566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45764</v>
       </c>
@@ -1283,8 +1875,19 @@
       <c r="D56">
         <v>0.10575</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>1.175E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45764</v>
       </c>
@@ -1297,8 +1900,19 @@
       <c r="D57">
         <v>4.2479999999999997E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>5.79E-3</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>3.669E-2</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="5"/>
+        <v>0.86370056497175152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45764</v>
       </c>
@@ -1311,8 +1925,19 @@
       <c r="D58">
         <v>2.222E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>2.47E-3</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>1.975E-2</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88883888388838883</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45764</v>
       </c>
@@ -1325,8 +1950,19 @@
       <c r="D59">
         <v>6.9040000000000004E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="5"/>
+        <v>0.85805330243337197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45764</v>
       </c>
@@ -1339,8 +1975,19 @@
       <c r="D60">
         <v>6.13E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>5.2769999999999997E-2</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="5"/>
+        <v>0.86084828711256112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45764</v>
       </c>
@@ -1353,8 +2000,19 @@
       <c r="D61">
         <v>7.7710000000000001E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>6.9580000000000003E-2</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="5"/>
+        <v>0.89538025994080561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45764</v>
       </c>
@@ -1366,6 +2024,17 @@
       </c>
       <c r="D62">
         <v>5.3150000000000003E-2</v>
+      </c>
+      <c r="G62">
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>4.6970000000000005E-2</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="5"/>
+        <v>0.88372530573847607</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/plant/petal_weight.xlsx
+++ b/data/raw/plant/petal_weight.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gretchen/GitHub/CApoppy/data/raw/plant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D088814-4627-4E5F-B102-A962F792AF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011C0418-522C-3345-88D6-48E2D7A720BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38640" yWindow="500" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petal_2025_low" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -60,11 +73,17 @@
   <si>
     <t>water_mg</t>
   </si>
+  <si>
+    <t>water_percent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,8 +123,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,17 +467,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -482,9 +501,12 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -509,13 +531,13 @@
         <f>D3-G3</f>
         <v>0.14157</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f>H3/D3</f>
         <v>0.88942639944713198</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -540,13 +562,13 @@
         <f t="shared" ref="H4:H17" si="0">D4-G4</f>
         <v>9.8930000000000004E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f t="shared" ref="I4:I17" si="1">H4/D4</f>
         <v>0.89854677565849228</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -571,13 +593,13 @@
         <f t="shared" si="0"/>
         <v>0.18359</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>0.89634801288936627</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -599,13 +621,13 @@
         <f t="shared" si="0"/>
         <v>0.15789999999999998</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>0.89858866378329161</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -627,13 +649,13 @@
         <f t="shared" si="0"/>
         <v>0.16696</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>0.89312078741842305</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
@@ -655,13 +677,13 @@
         <f t="shared" si="0"/>
         <v>0.14959</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>0.89126549094375607</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
@@ -683,13 +705,13 @@
         <f t="shared" si="0"/>
         <v>0.10836</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>0.88140556368960477</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
@@ -711,13 +733,13 @@
         <f t="shared" si="0"/>
         <v>0.13807</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>0.89498930446619562</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
@@ -739,13 +761,13 @@
         <f t="shared" si="0"/>
         <v>9.7549999999999998E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>0.89503624185705111</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
@@ -767,13 +789,13 @@
         <f t="shared" si="0"/>
         <v>0.16535</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>0.89986394557823124</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -795,13 +817,13 @@
         <f t="shared" si="0"/>
         <v>0.17779</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>0.88673316708229422</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -823,13 +845,13 @@
         <f t="shared" si="0"/>
         <v>0.21931</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>0.8932833693128589</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
@@ -851,13 +873,13 @@
         <f t="shared" si="0"/>
         <v>0.16967000000000002</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>0.89796242392167247</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
@@ -879,13 +901,13 @@
         <f t="shared" si="0"/>
         <v>0.12121</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <f t="shared" si="1"/>
         <v>0.8909879447221406</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
@@ -907,13 +929,13 @@
         <f t="shared" si="0"/>
         <v>0.10503</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
         <v>0.88238259262370833</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>45744</v>
       </c>
       <c r="B18" t="s">
@@ -932,13 +954,13 @@
         <f t="shared" ref="H18:H32" si="2">D18-G18</f>
         <v>4.8230000000000002E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <f t="shared" ref="I18:I32" si="3">H18/D18</f>
         <v>0.88560411311053988</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>45744</v>
       </c>
       <c r="B19" t="s">
@@ -957,13 +979,13 @@
         <f t="shared" si="2"/>
         <v>5.7249999999999995E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <f t="shared" si="3"/>
         <v>0.87618610345883075</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>45744</v>
       </c>
       <c r="B20" t="s">
@@ -982,13 +1004,13 @@
         <f t="shared" si="2"/>
         <v>5.7660000000000003E-2</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <f t="shared" si="3"/>
         <v>0.8274971297359357</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>45744</v>
       </c>
       <c r="B21" t="s">
@@ -1007,13 +1029,13 @@
         <f t="shared" si="2"/>
         <v>5.484E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <f t="shared" si="3"/>
         <v>0.85155279503105596</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>45744</v>
       </c>
       <c r="B22" t="s">
@@ -1032,13 +1054,13 @@
         <f t="shared" si="2"/>
         <v>7.5209999999999999E-2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <f t="shared" si="3"/>
         <v>0.90061070530475396</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>45744</v>
       </c>
       <c r="B23" t="s">
@@ -1057,13 +1079,13 @@
         <f t="shared" si="2"/>
         <v>6.8719999999999989E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f t="shared" si="3"/>
         <v>0.87843538284545564</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>45744</v>
       </c>
       <c r="B24" t="s">
@@ -1082,13 +1104,13 @@
         <f t="shared" si="2"/>
         <v>0.11238999999999999</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <f t="shared" si="3"/>
         <v>0.89876049580167927</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>45744</v>
       </c>
       <c r="B25" t="s">
@@ -1107,13 +1129,13 @@
         <f t="shared" si="2"/>
         <v>0.10102999999999999</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <f t="shared" si="3"/>
         <v>0.94517728505940679</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>45744</v>
       </c>
       <c r="B26" t="s">
@@ -1132,13 +1154,13 @@
         <f t="shared" si="2"/>
         <v>0.13103999999999999</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <f t="shared" si="3"/>
         <v>0.90678845754619053</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>45744</v>
       </c>
       <c r="B27" t="s">
@@ -1157,13 +1179,13 @@
         <f t="shared" si="2"/>
         <v>7.2160000000000002E-2</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <f t="shared" si="3"/>
         <v>0.8796781665244422</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>45744</v>
       </c>
       <c r="B28" t="s">
@@ -1182,13 +1204,13 @@
         <f t="shared" si="2"/>
         <v>6.6879999999999995E-2</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <f t="shared" si="3"/>
         <v>0.89387864207431167</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>45744</v>
       </c>
       <c r="B29" t="s">
@@ -1207,13 +1229,13 @@
         <f t="shared" si="2"/>
         <v>7.5539999999999996E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <f t="shared" si="3"/>
         <v>0.89800285306704708</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>45744</v>
       </c>
       <c r="B30" t="s">
@@ -1232,13 +1254,13 @@
         <f t="shared" si="2"/>
         <v>2.8580000000000001E-2</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <f t="shared" si="3"/>
         <v>0.90443037974683538</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>45744</v>
       </c>
       <c r="B31" t="s">
@@ -1257,13 +1279,13 @@
         <f t="shared" si="2"/>
         <v>3.3849999999999998E-2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <f t="shared" si="3"/>
         <v>0.88381201044386415</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>45744</v>
       </c>
       <c r="B32" t="s">
@@ -1282,13 +1304,13 @@
         <f t="shared" si="2"/>
         <v>4.9570000000000003E-2</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <f t="shared" si="3"/>
         <v>0.84547160156916257</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>45744</v>
       </c>
       <c r="B33" t="s">
@@ -1307,13 +1329,13 @@
         <f t="shared" ref="H33:H62" si="4">D33-G33</f>
         <v>6.5279999999999991E-2</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <f t="shared" ref="I33:I62" si="5">H33/D33</f>
         <v>0.87494973864093273</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>45744</v>
       </c>
       <c r="B34" t="s">
@@ -1332,13 +1354,13 @@
         <f t="shared" si="4"/>
         <v>3.2230000000000002E-2</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <f t="shared" si="5"/>
         <v>0.87462686567164183</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>45744</v>
       </c>
       <c r="B35" t="s">
@@ -1357,13 +1379,13 @@
         <f t="shared" si="4"/>
         <v>9.426000000000001E-2</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <f t="shared" si="5"/>
         <v>0.88823972860912181</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>45744</v>
       </c>
       <c r="B36" t="s">
@@ -1382,13 +1404,13 @@
         <f t="shared" si="4"/>
         <v>6.3390000000000002E-2</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <f t="shared" si="5"/>
         <v>0.90492505353319064</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>45744</v>
       </c>
       <c r="B37" t="s">
@@ -1407,13 +1429,13 @@
         <f t="shared" si="4"/>
         <v>5.4610000000000006E-2</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <f t="shared" si="5"/>
         <v>0.87348048624440178</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>45744</v>
       </c>
       <c r="B38" t="s">
@@ -1432,13 +1454,13 @@
         <f t="shared" si="4"/>
         <v>5.2470000000000003E-2</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <f t="shared" si="5"/>
         <v>0.88022143935581276</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>45744</v>
       </c>
       <c r="B39" t="s">
@@ -1457,13 +1479,13 @@
         <f t="shared" si="4"/>
         <v>5.636E-2</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <f t="shared" si="5"/>
         <v>0.89602543720190786</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>45744</v>
       </c>
       <c r="B40" t="s">
@@ -1482,13 +1504,13 @@
         <f t="shared" si="4"/>
         <v>4.4609999999999997E-2</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <f t="shared" si="5"/>
         <v>0.87694122272459207</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>45744</v>
       </c>
       <c r="B41" t="s">
@@ -1507,13 +1529,13 @@
         <f t="shared" si="4"/>
         <v>6.5099999999999991E-2</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <f t="shared" si="5"/>
         <v>0.87806851901807381</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>45744</v>
       </c>
       <c r="B42" t="s">
@@ -1532,13 +1554,13 @@
         <f t="shared" si="4"/>
         <v>3.7700000000000004E-2</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <f t="shared" si="5"/>
         <v>0.85216998191681748</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>45744</v>
       </c>
       <c r="B43" t="s">
@@ -1557,13 +1579,13 @@
         <f t="shared" si="4"/>
         <v>0.11572999999999999</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <f t="shared" si="5"/>
         <v>0.88634448954583744</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>45744</v>
       </c>
       <c r="B44" t="s">
@@ -1582,13 +1604,13 @@
         <f t="shared" si="4"/>
         <v>7.8979999999999995E-2</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <f t="shared" si="5"/>
         <v>0.88117817694968192</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>45744</v>
       </c>
       <c r="B45" t="s">
@@ -1607,13 +1629,13 @@
         <f t="shared" si="4"/>
         <v>0.10453</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <f t="shared" si="5"/>
         <v>0.88404939106901215</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>45744</v>
       </c>
       <c r="B46" t="s">
@@ -1632,13 +1654,13 @@
         <f t="shared" si="4"/>
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <f t="shared" si="5"/>
         <v>0.88183730715287512</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>45744</v>
       </c>
       <c r="B47" t="s">
@@ -1657,13 +1679,13 @@
         <f t="shared" si="4"/>
         <v>9.1730000000000006E-2</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <f t="shared" si="5"/>
         <v>0.87729533282325944</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>45764</v>
       </c>
       <c r="B48" t="s">
@@ -1682,13 +1704,13 @@
         <f t="shared" si="4"/>
         <v>2.8140000000000002E-2</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <f t="shared" si="5"/>
         <v>0.99294283697953423</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>45764</v>
       </c>
       <c r="B49" t="s">
@@ -1707,13 +1729,13 @@
         <f t="shared" si="4"/>
         <v>2.8080000000000001E-2</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <f t="shared" si="5"/>
         <v>0.86161399202209266</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>45764</v>
       </c>
       <c r="B50" t="s">
@@ -1732,13 +1754,13 @@
         <f t="shared" si="4"/>
         <v>3.458E-2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <f t="shared" si="5"/>
         <v>0.88372093023255816</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>45764</v>
       </c>
       <c r="B51" t="s">
@@ -1757,13 +1779,13 @@
         <f t="shared" si="4"/>
         <v>6.4489999999999992E-2</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <f t="shared" si="5"/>
         <v>0.86937179832839029</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>45764</v>
       </c>
       <c r="B52" t="s">
@@ -1782,13 +1804,13 @@
         <f t="shared" si="4"/>
         <v>4.0370000000000003E-2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <f t="shared" si="5"/>
         <v>0.88395007663674185</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>45764</v>
       </c>
       <c r="B53" t="s">
@@ -1807,13 +1829,13 @@
         <f t="shared" si="4"/>
         <v>9.5219999999999999E-2</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <f t="shared" si="5"/>
         <v>0.90659811482433594</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>45764</v>
       </c>
       <c r="B54" t="s">
@@ -1832,13 +1854,13 @@
         <f t="shared" si="4"/>
         <v>6.649999999999999E-2</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <f t="shared" si="5"/>
         <v>0.88915630431875914</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>45764</v>
       </c>
       <c r="B55" t="s">
@@ -1857,13 +1879,13 @@
         <f t="shared" si="4"/>
         <v>6.7169999999999994E-2</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <f t="shared" si="5"/>
         <v>0.90684487646820566</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>45764</v>
       </c>
       <c r="B56" t="s">
@@ -1882,13 +1904,13 @@
         <f t="shared" si="4"/>
         <v>9.4E-2</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="1">
         <f t="shared" si="5"/>
         <v>0.88888888888888895</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>45764</v>
       </c>
       <c r="B57" t="s">
@@ -1907,13 +1929,13 @@
         <f t="shared" si="4"/>
         <v>3.669E-2</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="1">
         <f t="shared" si="5"/>
         <v>0.86370056497175152</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>45764</v>
       </c>
       <c r="B58" t="s">
@@ -1932,13 +1954,13 @@
         <f t="shared" si="4"/>
         <v>1.975E-2</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="1">
         <f t="shared" si="5"/>
         <v>0.88883888388838883</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>45764</v>
       </c>
       <c r="B59" t="s">
@@ -1957,13 +1979,13 @@
         <f t="shared" si="4"/>
         <v>5.9240000000000001E-2</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="1">
         <f t="shared" si="5"/>
         <v>0.85805330243337197</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>45764</v>
       </c>
       <c r="B60" t="s">
@@ -1982,13 +2004,13 @@
         <f t="shared" si="4"/>
         <v>5.2769999999999997E-2</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="1">
         <f t="shared" si="5"/>
         <v>0.86084828711256112</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>45764</v>
       </c>
       <c r="B61" t="s">
@@ -2007,13 +2029,13 @@
         <f t="shared" si="4"/>
         <v>6.9580000000000003E-2</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <f t="shared" si="5"/>
         <v>0.89538025994080561</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>45764</v>
       </c>
       <c r="B62" t="s">
@@ -2032,7 +2054,7 @@
         <f t="shared" si="4"/>
         <v>4.6970000000000005E-2</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <f t="shared" si="5"/>
         <v>0.88372530573847607</v>
       </c>

--- a/data/raw/plant/petal_weight.xlsx
+++ b/data/raw/plant/petal_weight.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D088814-4627-4E5F-B102-A962F792AF0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5283FBDE-7EB9-48C6-9FB4-DE79A126578E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petal_2025_low" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +60,12 @@
   </si>
   <si>
     <t>water_mg</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>double check 5/20 Perry data - missing one weight.</t>
   </si>
 </sst>
 </file>
@@ -446,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2037,6 +2044,573 @@
         <v>0.88372530573847607</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>1.7840000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>2.1950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>2.179E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>1.907E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1.494E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1.559E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1.404E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1.332E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1.3520000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>2.443E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2.0240000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>3.5810000000000002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>3.0630000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>1.9869999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>3.2750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>2.7029999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>3.7179999999999998E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>2.3040000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1.7219999999999999E-2</v>
+      </c>
+      <c r="E84">
+        <v>8.1420000000000006E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E85">
+        <v>8.9800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>3.3160000000000002E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.11244999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="E87">
+        <v>6.6030000000000005E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>3.6229999999999998E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.12798999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>1.882E-2</v>
+      </c>
+      <c r="E89">
+        <v>6.8190000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="E90">
+        <v>0.12113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>2.0369999999999999E-2</v>
+      </c>
+      <c r="E91">
+        <v>7.3730000000000004E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>3.4669999999999999E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.13655999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>1.145E-2</v>
+      </c>
+      <c r="E93">
+        <v>4.4080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>2.061E-2</v>
+      </c>
+      <c r="E94">
+        <v>7.7420000000000003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>2.316E-2</v>
+      </c>
+      <c r="E95">
+        <v>8.4430000000000005E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.13244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>3.3579999999999999E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.13173000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="E98">
+        <v>0.1241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AE0A4B-1E6F-4F75-BC10-959C71F80662}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/plant/petal_weight.xlsx
+++ b/data/raw/plant/petal_weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\900008049\Documents\GitHub\CApoppy\data\raw\plant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5283FBDE-7EB9-48C6-9FB4-DE79A126578E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFC139C-FD49-4FD5-AC5D-BF1A403EDE85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="760" windowWidth="33520" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>double check 5/20 Perry data - missing one weight.</t>
+  </si>
+  <si>
+    <t>note: only 1 other petal</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:B98"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2559,7 +2562,7 @@
         <v>0.13244</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45799</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>0.13173000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45799</v>
       </c>
@@ -2591,6 +2594,513 @@
       </c>
       <c r="E98">
         <v>0.1241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>2.58E-2</v>
+      </c>
+      <c r="E99">
+        <v>9.9449999999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>2.5870000000000001E-2</v>
+      </c>
+      <c r="E100">
+        <v>9.1429999999999997E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>4.104E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.14326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>6.6119999999999998E-2</v>
+      </c>
+      <c r="E102">
+        <v>0.23336999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E103">
+        <v>0.17912</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>1.9060000000000001E-2</v>
+      </c>
+      <c r="E104">
+        <v>7.0569999999999994E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>3.6850000000000001E-2</v>
+      </c>
+      <c r="E105">
+        <v>0.14238999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>2.4510000000000001E-2</v>
+      </c>
+      <c r="E106">
+        <v>5.432E-2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>6.8110000000000004E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.25609999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>3.0519999999999999E-2</v>
+      </c>
+      <c r="E108">
+        <v>0.10929999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>2.8170000000000001E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.10738</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>4.478E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.16599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>2.734E-2</v>
+      </c>
+      <c r="E111">
+        <v>9.8269999999999996E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
+      <c r="D112">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="E112">
+        <v>0.20577000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>1.256E-2</v>
+      </c>
+      <c r="E113">
+        <v>5.1240000000000001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>4.3189999999999999E-2</v>
+      </c>
+      <c r="E114">
+        <v>0.17515</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>3.0370000000000001E-2</v>
+      </c>
+      <c r="E115">
+        <v>0.12569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>5.0040000000000001E-2</v>
+      </c>
+      <c r="E116">
+        <v>0.18176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>3.8109999999999998E-2</v>
+      </c>
+      <c r="E117">
+        <v>0.13627</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>4.0770000000000001E-2</v>
+      </c>
+      <c r="E118">
+        <v>0.14979999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>2.9049999999999999E-2</v>
+      </c>
+      <c r="E119">
+        <v>0.11876</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>4.8680000000000001E-2</v>
+      </c>
+      <c r="E120">
+        <v>0.19547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>3.9960000000000002E-2</v>
+      </c>
+      <c r="E121">
+        <v>0.13272999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>2.6280000000000001E-2</v>
+      </c>
+      <c r="E122">
+        <v>0.12263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>5.3490000000000003E-2</v>
+      </c>
+      <c r="E123">
+        <v>0.19818</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>2.266E-2</v>
+      </c>
+      <c r="E124">
+        <v>7.6509999999999995E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>2.6790000000000001E-2</v>
+      </c>
+      <c r="E125">
+        <v>9.8610000000000003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>2.8510000000000001E-2</v>
+      </c>
+      <c r="E126">
+        <v>0.10714</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>4.437E-2</v>
+      </c>
+      <c r="E127">
+        <v>0.17354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
